--- a/data/data_process/subsidy_data.xlsx
+++ b/data/data_process/subsidy_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,123 +360,791 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>Country</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Renewable_Invest_Percent</t>
+          <t>Average subsidisation rate (%)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Subsidy per capita ($/person)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total subsidy as share of GDP (%)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="B2">
-        <v>0.29708853238265</v>
+        <v>0.845781271063814</v>
+      </c>
+      <c r="C2">
+        <v>1109.993802450848</v>
+      </c>
+      <c r="D2">
+        <v>0.2550589076312411</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Advanced Economies</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.3075780089153046</v>
+        <v>0.6989089953214693</v>
+      </c>
+      <c r="C3">
+        <v>146.8945167687252</v>
+      </c>
+      <c r="D3">
+        <v>0.04305707841540373</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EMDE</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.1806772908366534</v>
+        <v>0.3656898550420319</v>
+      </c>
+      <c r="C4">
+        <v>438.9507233522846</v>
+      </c>
+      <c r="D4">
+        <v>0.03196820574029147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.4185567010309279</v>
+        <v>0.7400405983008422</v>
+      </c>
+      <c r="C5">
+        <v>1103.898016194181</v>
+      </c>
+      <c r="D5">
+        <v>0.1607907702440193</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.2375384615384616</v>
+        <v>0.5015203417059264</v>
+      </c>
+      <c r="C6">
+        <v>2796.996226548145</v>
+      </c>
+      <c r="D6">
+        <v>0.09275219426282313</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Central and South America</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.3159806295399516</v>
+        <v>0.5987269811157265</v>
+      </c>
+      <c r="C7">
+        <v>151.3450858265485</v>
+      </c>
+      <c r="D7">
+        <v>0.05629752600396755</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.4015444015444015</v>
+        <v>0.4656871217024312</v>
+      </c>
+      <c r="C8">
+        <v>274.595186631571</v>
+      </c>
+      <c r="D8">
+        <v>0.07766017921858823</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Brunei</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.2141527001862197</v>
+        <v>0.6658173736262359</v>
+      </c>
+      <c r="C9">
+        <v>2238.589311606468</v>
+      </c>
+      <c r="D9">
+        <v>0.0603575503670974</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Middle East</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.03008695652173913</v>
+        <v>0.06882398944220416</v>
+      </c>
+      <c r="C10">
+        <v>73.3167594238513</v>
+      </c>
+      <c r="D10">
+        <v>0.005720937104850767</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Eurasia</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.05585392051557465</v>
+        <v>0.2802165387364198</v>
+      </c>
+      <c r="C11">
+        <v>138.8614420572086</v>
+      </c>
+      <c r="D11">
+        <v>0.02096689542222228</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.4494535519125683</v>
+        <v>0.2627376345892882</v>
+      </c>
+      <c r="C12">
+        <v>203.310225787071</v>
+      </c>
+      <c r="D12">
+        <v>0.03145274540783057</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>0.7227978880561695</v>
+      </c>
+      <c r="C13">
+        <v>596.5594923851593</v>
+      </c>
+      <c r="D13">
+        <v>0.1393261206414669</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Gabon</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>0.3300154967615688</v>
+      </c>
+      <c r="C15">
+        <v>161.3287011774761</v>
+      </c>
+      <c r="D15">
+        <v>0.01757254611667868</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>0.3368022646938292</v>
+      </c>
+      <c r="C16">
+        <v>80.62202365956679</v>
+      </c>
+      <c r="D16">
+        <v>0.03705281284680335</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>0.06759389982799204</v>
+      </c>
+      <c r="C17">
+        <v>19.72669258395731</v>
+      </c>
+      <c r="D17">
+        <v>0.008255409252855625</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>0.3770122741372379</v>
+      </c>
+      <c r="C18">
+        <v>160.8444254753044</v>
+      </c>
+      <c r="D18">
+        <v>0.03360068885869209</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>0.9474481913720455</v>
+      </c>
+      <c r="C19">
+        <v>1433.768708688057</v>
+      </c>
+      <c r="D19">
+        <v>0.360464868123703</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>0.6903091216379427</v>
+      </c>
+      <c r="C20">
+        <v>491.5172733370848</v>
+      </c>
+      <c r="D20">
+        <v>0.08089397084112769</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Kazakhstan</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>0.7370253099972555</v>
+      </c>
+      <c r="C21">
+        <v>1794.370137974145</v>
+      </c>
+      <c r="D21">
+        <v>0.1525917230661754</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Korea</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Kuwait</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>0.7841712821500352</v>
+      </c>
+      <c r="C23">
+        <v>4939.373919672309</v>
+      </c>
+      <c r="D23">
+        <v>0.1142458977049283</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Libya</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>0.9410169555056773</v>
+      </c>
+      <c r="C24">
+        <v>1784.140953197989</v>
+      </c>
+      <c r="D24">
+        <v>0.2758062157573861</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>0.3332411987155125</v>
+      </c>
+      <c r="C25">
+        <v>477.8867320866268</v>
+      </c>
+      <c r="D25">
+        <v>0.03975918590934393</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="B26">
+        <v>0.06545807038615205</v>
+      </c>
+      <c r="C26">
+        <v>50.20971125856767</v>
+      </c>
+      <c r="D26">
+        <v>0.004608215051379998</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>0.5958090844327909</v>
+      </c>
+      <c r="C27">
+        <v>85.76171763156222</v>
+      </c>
+      <c r="D27">
+        <v>0.03926138169110685</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>0.4419146561422714</v>
+      </c>
+      <c r="C28">
+        <v>113.0284166394842</v>
+      </c>
+      <c r="D28">
+        <v>0.07079785621248227</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="B29">
+        <v>0.6566992332075397</v>
+      </c>
+      <c r="C29">
+        <v>3762.490650472588</v>
+      </c>
+      <c r="D29">
+        <v>0.04496904285750767</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>0.3799822911647202</v>
+      </c>
+      <c r="C30">
+        <v>1124.374838782284</v>
+      </c>
+      <c r="D30">
+        <v>0.07261228493176854</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>0.5816448540521997</v>
+      </c>
+      <c r="C31">
+        <v>2113.361045164665</v>
+      </c>
+      <c r="D31">
+        <v>0.06943482719901767</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>0.1177701357752814</v>
+      </c>
+      <c r="C32">
+        <v>106.6230074228112</v>
+      </c>
+      <c r="D32">
+        <v>0.0157405965576726</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>0.4273718106245439</v>
+      </c>
+      <c r="C33">
+        <v>91.37352442521012</v>
+      </c>
+      <c r="D33">
+        <v>0.02695933194094141</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Taipei</t>
+        </is>
+      </c>
+      <c r="B34">
+        <v>0.1900447975367297</v>
+      </c>
+      <c r="C34">
+        <v>413.7300873765844</v>
+      </c>
+      <c r="D34">
+        <v>0.01297557788310593</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>0.1102501145477027</v>
+      </c>
+      <c r="C35">
+        <v>113.0076976945903</v>
+      </c>
+      <c r="D35">
+        <v>0.01511172902949267</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Trinidad and Tobago</t>
+        </is>
+      </c>
+      <c r="B36">
+        <v>0.4923161351835887</v>
+      </c>
+      <c r="C36">
+        <v>857.0831798564136</v>
+      </c>
+      <c r="D36">
+        <v>0.04707247841973131</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Turkmenistan</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>0.6574475084970305</v>
+      </c>
+      <c r="C37">
+        <v>2385.493554164405</v>
+      </c>
+      <c r="D37">
+        <v>0.1966707835527946</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>0.5733085204726636</v>
+      </c>
+      <c r="C38">
+        <v>3922.604570112549</v>
+      </c>
+      <c r="D38">
+        <v>0.07296687394955657</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>0.5170713648111209</v>
+      </c>
+      <c r="C39">
+        <v>490.8545583877262</v>
+      </c>
+      <c r="D39">
+        <v>0.1294034441472788</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Uzbekistan</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>0.6725914088242627</v>
+      </c>
+      <c r="C40">
+        <v>640.3761935784592</v>
+      </c>
+      <c r="D40">
+        <v>0.2824873146472607</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Venezuela</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>0.9113932367666306</v>
+      </c>
+      <c r="C41">
+        <v>453.0992601920986</v>
+      </c>
+      <c r="D41">
+        <v>0.2161282591405888</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>0.4173031905181675</v>
+      </c>
+      <c r="C42">
+        <v>322.2358237978812</v>
+      </c>
+      <c r="D42">
+        <v>0.07784268010866434</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>0.07035835783374242</v>
+      </c>
+      <c r="C43">
+        <v>173.5216709973806</v>
+      </c>
+      <c r="D43">
+        <v>0.004228327030994979</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B44">
+        <v>0.07209822037045152</v>
+      </c>
+      <c r="C44">
+        <v>217.7728940794523</v>
+      </c>
+      <c r="D44">
+        <v>0.004792842957417747</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="B45">
+        <v>0.03590021057465036</v>
+      </c>
+      <c r="C45">
+        <v>232.179244929549</v>
+      </c>
+      <c r="D45">
+        <v>0.004415136193953673</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="B46">
+        <v>0.155860559166826</v>
+      </c>
+      <c r="C46">
+        <v>751.4970170932551</v>
+      </c>
+      <c r="D46">
+        <v>0.04450881978010735</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B47">
+        <v>0.1716380804879125</v>
+      </c>
+      <c r="C47">
+        <v>468.9263468148405</v>
+      </c>
+      <c r="D47">
+        <v>0.02705061699268395</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Slovak Republic</t>
+        </is>
+      </c>
+      <c r="B48">
+        <v>0.06066490960763795</v>
+      </c>
+      <c r="C48">
+        <v>278.3702946631696</v>
+      </c>
+      <c r="D48">
+        <v>0.01382332635911164</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B49">
+        <v>0.07155272368644658</v>
+      </c>
+      <c r="C49">
+        <v>418.4332175029026</v>
+      </c>
+      <c r="D49">
+        <v>0.02280384007064383</v>
       </c>
     </row>
   </sheetData>
